--- a/BackEnd/db/M-L.xlsx
+++ b/BackEnd/db/M-L.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjectEndYear\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjectEndYear\BackEnd\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379D67B5-7023-45C0-8D51-2F18982E0183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B51ECC-5FBD-41CE-94D9-F66D24D3B0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
   <si>
     <t>Nome Campo</t>
   </si>
@@ -132,40 +132,88 @@
     <t>ID_veicolo</t>
   </si>
   <si>
-    <t>Chiave esterna a Utente(ID_veicolo)</t>
-  </si>
-  <si>
     <t>ID_pack</t>
   </si>
   <si>
     <t>Descrizione</t>
   </si>
   <si>
-    <t>Chiave esterna a Utente(ID_pack)</t>
-  </si>
-  <si>
     <t>ID_conf</t>
   </si>
   <si>
-    <t>Chiave esterna a Configurazione(ID_colore)</t>
-  </si>
-  <si>
     <t>ID_motore</t>
   </si>
   <si>
-    <t>Chiave esterna a Configurazione(ID_motore)</t>
-  </si>
-  <si>
     <t>ID_colore</t>
   </si>
   <si>
-    <t>ID_optional</t>
-  </si>
-  <si>
-    <t>Chiave esterna a Configurazione(ID_optional)</t>
-  </si>
-  <si>
     <t>Optional</t>
+  </si>
+  <si>
+    <t>ID_Conf</t>
+  </si>
+  <si>
+    <t>Chiave esterna a Motore(ID_motore)</t>
+  </si>
+  <si>
+    <t>Chiave esterna a Veicolo(ID_veicolo)</t>
+  </si>
+  <si>
+    <t>Chiave esterna a Configurazione(ID_conf)</t>
+  </si>
+  <si>
+    <t>ID_optionalConf</t>
+  </si>
+  <si>
+    <t>ID_opt</t>
+  </si>
+  <si>
+    <t>Optional_conf</t>
+  </si>
+  <si>
+    <t>ID_opt_conf</t>
+  </si>
+  <si>
+    <t>Opt1</t>
+  </si>
+  <si>
+    <t>Opt2</t>
+  </si>
+  <si>
+    <t>Opt3</t>
+  </si>
+  <si>
+    <t>Opt4</t>
+  </si>
+  <si>
+    <t>Opt5</t>
+  </si>
+  <si>
+    <t>Opt6</t>
+  </si>
+  <si>
+    <t>Opt7</t>
+  </si>
+  <si>
+    <t>Opt8</t>
+  </si>
+  <si>
+    <t>Opt9</t>
+  </si>
+  <si>
+    <t>Opt10</t>
+  </si>
+  <si>
+    <t>Chiave esterna a Optional_conf(ID_opt_conf)</t>
+  </si>
+  <si>
+    <t>Chiave esterna a Colore(ID_colore)</t>
+  </si>
+  <si>
+    <t>Chiave esterna a Pack(ID_pack)</t>
+  </si>
+  <si>
+    <t>Chiave esterna a Optional(ID_opt)</t>
   </si>
 </sst>
 </file>
@@ -219,16 +267,14 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Agency FB"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -312,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,13 +387,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -628,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K40"/>
+  <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,15 +682,26 @@
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:15" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2"/>
       <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="52.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="2"/>
+      <c r="M2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="52.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -666,14 +717,30 @@
       <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
@@ -687,14 +754,28 @@
       <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
@@ -706,11 +787,24 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="H5" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="10"/>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6">
+        <v>50</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
@@ -722,11 +816,24 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="10"/>
+      <c r="K6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6">
+        <v>200</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
@@ -736,11 +843,14 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="H7" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="10"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
@@ -750,143 +860,282 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="H8" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="10"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="52.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="12" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="D12" s="7" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="K9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="2"/>
+      <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="52.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
+      <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="6">
+        <v>50</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="6">
+        <v>200</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="6">
-        <v>10</v>
-      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="M14" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="52.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="6">
-        <v>10</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="K16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="6">
-        <v>11</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>50</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="20" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
       <c r="D20" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="52.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
@@ -902,196 +1151,170 @@
       <c r="F21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="6">
-        <v>10</v>
-      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="6">
-        <v>10</v>
-      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="9">
-        <v>10</v>
-      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="6">
-        <v>10</v>
-      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="2"/>
-      <c r="D28" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="52.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="6">
-        <v>50</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="6">
-        <v>200</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="35" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
-      <c r="D35" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4 E12:E18 E28:E33 E50:E1048576 E2:E10 E20:E23 E25 E35:E40" xr:uid="{1B2305F0-C5B7-4891-A17B-5E4F3D5BD8DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4 E49:E1048576 E20:E23 E11:E18 E2:E9 E25:E26 E39 N2:N12 N14:N26" xr:uid="{1B2305F0-C5B7-4891-A17B-5E4F3D5BD8DE}">
       <formula1>$I$3:$I$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C18 C50:C1048576 C28:C33 C2:C10 C20:C23 C25 C35:C40" xr:uid="{BC79C5F3-6C39-4E96-A9A6-5A68E0A4E304}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C49:C1048576 C20:C23 C11:C18 C2:C9 C25:C26 C39 L2:L12 L14:L26" xr:uid="{BC79C5F3-6C39-4E96-A9A6-5A68E0A4E304}">
       <formula1>$H$3:$H$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/BackEnd/db/M-L.xlsx
+++ b/BackEnd/db/M-L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjectEndYear\BackEnd\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B51ECC-5FBD-41CE-94D9-F66D24D3B0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B872ECA1-9EDD-44AF-9D18-C1739D7CDA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3636" yWindow="2784" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="69">
   <si>
     <t>Nome Campo</t>
   </si>
@@ -214,13 +214,31 @@
   </si>
   <si>
     <t>Chiave esterna a Optional(ID_opt)</t>
+  </si>
+  <si>
+    <t>Utente</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Data_Nascita</t>
+  </si>
+  <si>
+    <t>Colore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +293,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -358,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,6 +414,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -668,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O39"/>
+  <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -1305,16 +1332,161 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
+    <row r="28" spans="2:15" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="2"/>
+      <c r="D28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="M28" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="52.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6">
+        <v>100</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="K31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31" s="6">
+        <v>100</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>100</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="6">
+        <v>255</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6">
+        <v>255</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4 E49:E1048576 E20:E23 E11:E18 E2:E9 E25:E26 E39 N2:N12 N14:N26" xr:uid="{1B2305F0-C5B7-4891-A17B-5E4F3D5BD8DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4 E46:E1048576 E20:E23 E11:E18 E2:E9 E25:E26 N2:N12 N14:N26 E28:E31 E33:E36 N28:N31" xr:uid="{1B2305F0-C5B7-4891-A17B-5E4F3D5BD8DE}">
       <formula1>$I$3:$I$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C49:C1048576 C20:C23 C11:C18 C2:C9 C25:C26 C39 L2:L12 L14:L26" xr:uid="{BC79C5F3-6C39-4E96-A9A6-5A68E0A4E304}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46:C1048576 C20:C23 C11:C18 C2:C9 C25:C26 L2:L12 L14:L26 C28:C36 L28:L31" xr:uid="{BC79C5F3-6C39-4E96-A9A6-5A68E0A4E304}">
       <formula1>$H$3:$H$8</formula1>
     </dataValidation>
   </dataValidations>
